--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints2.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints2.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>1.490932506997841e-11</v>
+        <v>7.806413706434702e-12</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>1.507382949613586e-11</v>
+        <v>8.060868452543152e-12</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>1.522972338067207e-11</v>
+        <v>8.295655098739418e-12</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>1.537826431091799e-11</v>
+        <v>8.512559006478258e-12</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>1.552070987420457e-11</v>
+        <v>8.713365537214436e-12</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>1.565831765786275e-11</v>
+        <v>8.899860052402707e-12</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>1.579234524922349e-11</v>
+        <v>9.07382791349784e-12</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>1.592405023561774e-11</v>
+        <v>9.237054481954579e-12</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>1.605469020437643e-11</v>
+        <v>9.3913251192277e-12</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>1.618552274283054e-11</v>
+        <v>9.538425186771954e-12</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>1.631780543831094e-11</v>
+        <v>9.680140046042039e-12</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>1.645279587814871e-11</v>
+        <v>9.818255058492848e-12</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>1.659175164967473e-11</v>
+        <v>9.954555585579072e-12</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>1.673593034021997e-11</v>
+        <v>1.009082698875547e-11</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>1.688658953711535e-11</v>
+        <v>1.02288546294768e-11</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>1.704498682769185e-11</v>
+        <v>1.037042386919784e-11</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>1.721237979928039e-11</v>
+        <v>1.051732006937332e-11</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>1.739002603921195e-11</v>
+        <v>1.067132859145802e-11</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>1.757918313481746e-11</v>
+        <v>1.08342347969067e-11</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>1.778110867342788e-11</v>
+        <v>1.100782404717411e-11</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>1.799706024237415e-11</v>
+        <v>1.119388170371502e-11</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>1.822829542898724e-11</v>
+        <v>1.139419312798418e-11</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>1.847607182059808e-11</v>
+        <v>1.161054368143636e-11</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>1.874164700453762e-11</v>
+        <v>1.184471872552632e-11</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>1.902627856813683e-11</v>
+        <v>1.209850362170881e-11</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>1.933122409872664e-11</v>
+        <v>1.23736837314386e-11</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>1.965774118363801e-11</v>
+        <v>1.267204441617045e-11</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>2.000708741020188e-11</v>
+        <v>1.299537103735911e-11</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>2.038052036574902e-11</v>
+        <v>1.334544895645917e-11</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>2.077929763761076e-11</v>
+        <v>1.372406353492573e-11</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>2.120467681311784e-11</v>
+        <v>1.413300013421339e-11</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>2.165791547960123e-11</v>
+        <v>1.45740441157769e-11</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>2.214027122439188e-11</v>
+        <v>1.504898084107103e-11</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>2.265300163482073e-11</v>
+        <v>1.555959567155053e-11</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>2.319736429821874e-11</v>
+        <v>1.610767396867017e-11</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>2.377461680191686e-11</v>
+        <v>1.669500109388471e-11</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>2.438601673324604e-11</v>
+        <v>1.73233624086489e-11</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>2.503282167953723e-11</v>
+        <v>1.799454327441751e-11</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>2.571628922812136e-11</v>
+        <v>1.87103290526453e-11</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>2.643767696632942e-11</v>
+        <v>1.947250510478702e-11</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>2.719824248149233e-11</v>
+        <v>2.028285679229744e-11</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>2.799924336094104e-11</v>
+        <v>2.114316947663132e-11</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>2.884193719200652e-11</v>
+        <v>2.205522851924341e-11</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>2.972758156201969e-11</v>
+        <v>2.302081928158847e-11</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>3.065743405831153e-11</v>
+        <v>2.404172712512128e-11</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>3.163275226821297e-11</v>
+        <v>2.511973741129659e-11</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>3.265479377905498e-11</v>
+        <v>2.625663550156915e-11</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>3.372483641762316e-11</v>
+        <v>2.745422275830051e-11</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>3.484908982254563e-11</v>
+        <v>2.871819953538866e-11</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>3.604509999028851e-11</v>
+        <v>3.006322848388881e-11</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>3.733199974630431e-11</v>
+        <v>3.15052267700294e-11</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>3.872892191604555e-11</v>
+        <v>3.306011156003883e-11</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>4.025499932496471e-11</v>
+        <v>3.474380002014549e-11</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>4.192936479851434e-11</v>
+        <v>3.657220931657783e-11</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>4.377115116214693e-11</v>
+        <v>3.856125661556423e-11</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>4.579949124131499e-11</v>
+        <v>4.072685908333312e-11</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>4.803351786147103e-11</v>
+        <v>4.308493388611291e-11</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>5.049236384806758e-11</v>
+        <v>4.565139819013202e-11</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>5.319516202655714e-11</v>
+        <v>4.844216916161885e-11</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>5.616104522239221e-11</v>
+        <v>5.147316396680181e-11</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>5.940914626102531e-11</v>
+        <v>5.476029977190933e-11</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>6.295859796790896e-11</v>
+        <v>5.831949374316981e-11</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>6.682853316849566e-11</v>
+        <v>6.216666304681166e-11</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>7.103808468823793e-11</v>
+        <v>6.63177248490633e-11</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>7.560638535258828e-11</v>
+        <v>7.078859631615315e-11</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>8.05525679869967e-11</v>
+        <v>7.559519461430719e-11</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>8.590759892303411e-11</v>
+        <v>8.076589273507509e-11</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>9.182925259760465e-11</v>
+        <v>8.646254056126827e-11</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>9.855228124728404e-11</v>
+        <v>9.292801400608677e-11</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>1.063125193916378e-10</v>
+        <v>1.004063281825362e-10</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>1.153458015502314e-10</v>
+        <v>1.091414982036223e-10</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>1.258879622426304e-10</v>
+        <v>1.193775391823505e-10</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>1.381748359884002e-10</v>
+        <v>1.313584662317265e-10</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>1.524422573071063e-10</v>
+        <v>1.45328294464756e-10</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>1.689260607183141e-10</v>
+        <v>1.615310389944444e-10</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>1.878620807415894e-10</v>
+        <v>1.802107149337976e-10</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>2.094861518964973e-10</v>
+        <v>2.016113373958208e-10</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>2.340341087026035e-10</v>
+        <v>2.259769214935201e-10</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>2.617417856794735e-10</v>
+        <v>2.535514823399008e-10</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>2.928450173466727e-10</v>
+        <v>2.845790350479686e-10</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>3.275228716617029e-10</v>
+        <v>3.192460240543914e-10</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>3.653123235050692e-10</v>
+        <v>3.570877052903053e-10</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>4.053444009179691e-10</v>
+        <v>3.972276374966965e-10</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>4.467437297607234e-10</v>
+        <v>4.387828865449872e-10</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>4.886349358936337e-10</v>
+        <v>4.808705183065798e-10</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>5.301426451770619e-10</v>
+        <v>5.226075986529374e-10</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>5.703914834713096e-10</v>
+        <v>5.631111934554623e-10</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>6.085060766366973e-10</v>
+        <v>6.014983685855767e-10</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>6.436110505335469e-10</v>
+        <v>6.36886189914703e-10</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>6.748310310221795e-10</v>
+        <v>6.683917233142637e-10</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>7.012906439629168e-10</v>
+        <v>6.951320346556813e-10</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>7.221145152160795e-10</v>
+        <v>7.162241898103778e-10</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>7.364272706419895e-10</v>
+        <v>7.307852546497758e-10</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>7.433535361009676e-10</v>
+        <v>7.379322950452977e-10</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>7.421004508874792e-10</v>
+        <v>7.368654313933453e-10</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>7.328612319551381e-10</v>
+        <v>7.277773280611732e-10</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>7.16478265769637e-10</v>
+        <v>7.115140759279294e-10</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>6.93805357175454e-10</v>
+        <v>6.889332591288116e-10</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>6.656963110170683e-10</v>
+        <v>6.608924617990182e-10</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>6.330049321389586e-10</v>
+        <v>6.282492680737468e-10</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>5.965850253856039e-10</v>
+        <v>5.918612620881957e-10</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>5.572903956014828e-10</v>
+        <v>5.525860279775628e-10</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>5.159748476310947e-10</v>
+        <v>5.112811498770666e-10</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>4.734921863188783e-10</v>
+        <v>4.688042119218643e-10</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>4.306962165093317e-10</v>
+        <v>4.260127982471741e-10</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>3.884407430469339e-10</v>
+        <v>3.837644929881938e-10</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>3.475795707761637e-10</v>
+        <v>3.429168802801212e-10</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>3.089665045415002e-10</v>
+        <v>3.043275442581547e-10</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>2.73455349187422e-10</v>
+        <v>2.688540690574921e-10</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>2.418380315072304e-10</v>
+        <v>2.372909522527561e-10</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>2.140373662104536e-10</v>
+        <v>2.095466051395733e-10</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>1.893350182062687e-10</v>
+        <v>1.848757672358098e-10</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>1.669976935640189e-10</v>
+        <v>1.625179270658481e-10</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>1.463865559111721e-10</v>
+        <v>1.41813408363415e-10</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>1.274079728348607e-10</v>
+        <v>1.226845502827047e-10</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>1.101634973565029e-10</v>
+        <v>1.052620560783386e-10</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>9.475493036679024e-11</v>
+        <v>8.967689361002214e-11</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>8.128286387592724e-11</v>
+        <v>7.605866729110861e-11</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>6.975473938415496e-11</v>
+        <v>6.443192092363646e-11</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>6.002031679499097e-11</v>
+        <v>5.464335575192326e-11</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>5.19141091035687e-11</v>
+        <v>4.652247666230505e-11</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>4.527062930502457e-11</v>
+        <v>3.989878854112078e-11</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>3.992439039448566e-11</v>
+        <v>3.460179627470016e-11</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>3.570990536708903e-11</v>
+        <v>3.046100474938279e-11</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>3.246168721796819e-11</v>
+        <v>2.730591885150479e-11</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>3.001424894225662e-11</v>
+        <v>2.496604346740218e-11</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>2.820210353508779e-11</v>
+        <v>2.327088348341105e-11</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>2.685976399159521e-11</v>
+        <v>2.204994378586746e-11</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>2.582174330691235e-11</v>
+        <v>2.113272926110748e-11</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>2.492255447617272e-11</v>
+        <v>2.034874479546717e-11</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>2.39967104945098e-11</v>
+        <v>1.95274952752826e-11</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>2.287878191150842e-11</v>
+        <v>1.849854740523731e-11</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>2.148297339177935e-11</v>
+        <v>1.717700166331401e-11</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>1.996116341813349e-11</v>
+        <v>1.573324030564361e-11</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>1.850937630937326e-11</v>
+        <v>1.438506194912866e-11</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>1.732363638430109e-11</v>
+        <v>1.335026521067175e-11</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>1.659383901811552e-11</v>
+        <v>1.283936550607791e-11</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>1.638143692318493e-11</v>
+        <v>1.291024611691349e-11</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>1.662603467781549e-11</v>
+        <v>1.347599465993122e-11</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>1.72624279711555e-11</v>
+        <v>1.444398420969573e-11</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>1.822541249235429e-11</v>
+        <v>1.572158784077319e-11</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>1.944978393056034e-11</v>
+        <v>1.721617862772839e-11</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>2.087033797492234e-11</v>
+        <v>1.883512964512652e-11</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>2.242187031458897e-11</v>
+        <v>2.048581396753278e-11</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>2.403917663870894e-11</v>
+        <v>2.207560466951234e-11</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>2.565706369692638e-11</v>
+        <v>2.351189246502638e-11</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>2.723459390542391e-11</v>
+        <v>2.474075126345078e-11</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>2.880651665080032e-11</v>
+        <v>2.582896136094793e-11</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>3.042230283910842e-11</v>
+        <v>2.686678108974811e-11</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>3.213142337640103e-11</v>
+        <v>2.794446878208162e-11</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>3.398334916873094e-11</v>
+        <v>2.915228277017874e-11</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>3.602755112215099e-11</v>
+        <v>3.058048138626978e-11</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>3.831350014271396e-11</v>
+        <v>3.231932296258503e-11</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>4.089066713647269e-11</v>
+        <v>3.445906583135476e-11</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>4.380852300947998e-11</v>
+        <v>3.708996832480928e-11</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>4.712580966923685e-11</v>
+        <v>4.030514401934791e-11</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>5.096290264087201e-11</v>
+        <v>4.421668815460541e-11</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>5.546532040544166e-11</v>
+        <v>4.894443939240295e-11</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>6.077865561201357e-11</v>
+        <v>5.460825923651499e-11</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>6.704850090965222e-11</v>
+        <v>6.132800919071248e-11</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>7.442044894743144e-11</v>
+        <v>6.922355075877638e-11</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>8.304009237441618e-11</v>
+        <v>7.841474544447818e-11</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>9.305302383967424e-11</v>
+        <v>8.902145475159235e-11</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>1.046048359922734e-10</v>
+        <v>1.011635401838934e-10</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>1.178411214812816e-10</v>
+        <v>1.149608632451558e-10</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>1.329074729557663e-10</v>
+        <v>1.30533285439154e-10</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>1.499494830647955e-10</v>
+        <v>1.480006682696625e-10</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>1.69112744457437e-10</v>
+        <v>1.674828732404557e-10</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>1.905427231877385e-10</v>
+        <v>1.890996430657975e-10</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>2.142097245332916e-10</v>
+        <v>2.128063596269212e-10</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>2.395612736726608e-10</v>
+        <v>2.380678579240396e-10</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>2.659477939467483e-10</v>
+        <v>2.642578581584375e-10</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>2.927197086964568e-10</v>
+        <v>2.907500805313995e-10</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>3.192274412626888e-10</v>
+        <v>3.169182452442109e-10</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>3.44821414986347e-10</v>
+        <v>3.421360724981563e-10</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>3.688520532083336e-10</v>
+        <v>3.657772824945205e-10</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>3.906697792695418e-10</v>
+        <v>3.872155954345788e-10</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>4.09625016510895e-10</v>
+        <v>4.058247315196368e-10</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>4.250756278668415e-10</v>
+        <v>4.209855883951193e-10</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>4.367033733407605e-10</v>
+        <v>4.323915475948652e-10</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>4.446320089174374e-10</v>
+        <v>4.401624119951141e-10</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>4.490170678543507e-10</v>
+        <v>4.444486420071278e-10</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>4.50014083408979e-10</v>
+        <v>4.454006980421683e-10</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>4.477785888388007e-10</v>
+        <v>4.431690405114972e-10</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>4.42466117401294e-10</v>
+        <v>4.379041298263761e-10</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>4.342322023539376e-10</v>
+        <v>4.29756426398067e-10</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>4.232323769542097e-10</v>
+        <v>4.188763906378315e-10</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>4.096222769873431e-10</v>
+        <v>4.054145848009993e-10</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>3.936226921296307e-10</v>
+        <v>3.895862905679323e-10</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>3.756311593120522e-10</v>
+        <v>3.717823582690481e-10</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>3.560748983937548e-10</v>
+        <v>3.524231232281087e-10</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>3.353811292338854e-10</v>
+        <v>3.319289207688762e-10</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>3.139770716915918e-10</v>
+        <v>3.107200862151132e-10</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>2.922899456260211e-10</v>
+        <v>2.892169548905815e-10</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>2.707469708963205e-10</v>
+        <v>2.678398621190436e-10</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>2.497753673616376e-10</v>
+        <v>2.470091432242617e-10</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>2.298023548811288e-10</v>
+        <v>2.271451335300073e-10</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>2.111987034413929e-10</v>
+        <v>2.086131376961638e-10</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>1.940118773868665e-10</v>
+        <v>1.914632829814892e-10</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>1.781744415115919e-10</v>
+        <v>1.756336857888783e-10</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>1.636188227362833e-10</v>
+        <v>1.610623281141772e-10</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>1.502774479816549e-10</v>
+        <v>1.47687191953232e-10</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>1.380827441684214e-10</v>
+        <v>1.354462593018889e-10</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>1.269671382172968e-10</v>
+        <v>1.24277512155994e-10</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>1.168630570489955e-10</v>
+        <v>1.141189325113934e-10</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>1.077029275842318e-10</v>
+        <v>1.049085023639332e-10</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>9.941953756176816e-11</v>
+        <v>9.658447159465175e-11</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>9.195661765523317e-11</v>
+        <v>8.909321454017807e-11</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>8.527054972106815e-11</v>
+        <v>8.239049826168841e-11</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>7.931842033846479e-11</v>
+        <v>7.643261303362491e-11</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>7.405731608661467e-11</v>
+        <v>7.117584913042955e-11</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>6.944432354470943e-11</v>
+        <v>6.657649682654441e-11</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>6.543652929194071e-11</v>
+        <v>6.259084639641153e-11</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>6.199101990750167e-11</v>
+        <v>5.917518811447449e-11</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>5.906488197058062e-11</v>
+        <v>5.628581225517205e-11</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>5.661520206037099e-11</v>
+        <v>5.387900909294806e-11</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>5.459906675606442e-11</v>
+        <v>5.191106890224455e-11</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>5.297356263685251e-11</v>
+        <v>5.03382819575036e-11</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>5.169577628192691e-11</v>
+        <v>4.911693853316721e-11</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>5.072279427047926e-11</v>
+        <v>4.82033289036775e-11</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>5.001170318170117e-11</v>
+        <v>4.755374334347647e-11</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>4.951958959478428e-11</v>
+        <v>4.712447212700621e-11</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>4.92035400889202e-11</v>
+        <v>4.687180552870872e-11</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>4.90206412433006e-11</v>
+        <v>4.675203382302611e-11</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>4.892797963711707e-11</v>
+        <v>4.672144728440039e-11</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>4.888264184956123e-11</v>
+        <v>4.673633618727361e-11</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>4.884171445982477e-11</v>
+        <v>4.675299080608787e-11</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>4.876228404709925e-11</v>
+        <v>4.672770141528517e-11</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>4.860143719057634e-11</v>
+        <v>4.661675828930757e-11</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>4.831626046944765e-11</v>
+        <v>4.637645170259714e-11</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>4.786384046290483e-11</v>
+        <v>4.596307192959593e-11</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>4.720126375013949e-11</v>
+        <v>4.533290924474597e-11</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>4.628561691034326e-11</v>
+        <v>4.444225392248932e-11</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>4.507398652270844e-11</v>
+        <v>4.32473962372687e-11</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>4.352408864050339e-11</v>
+        <v>4.170527236832373e-11</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>4.163508284492657e-11</v>
+        <v>3.981534379419753e-11</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>3.947257350538881e-11</v>
+        <v>3.764525114339988e-11</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>3.710814667614137e-11</v>
+        <v>3.526877286500946e-11</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>3.461338841143547e-11</v>
+        <v>3.275968740810498e-11</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>3.205988476552239e-11</v>
+        <v>3.019177322176513e-11</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>2.951922179265336e-11</v>
+        <v>2.763880875506859e-11</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>2.706298554707963e-11</v>
+        <v>2.517457245709405e-11</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>2.476276208305243e-11</v>
+        <v>2.287284277692021e-11</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>2.269013745482304e-11</v>
+        <v>2.080739816362576e-11</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>2.091669771664266e-11</v>
+        <v>1.905201706628939e-11</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>1.951402892276258e-11</v>
+        <v>1.768047793398979e-11</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>1.855371712743401e-11</v>
+        <v>1.676655921580566e-11</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>1.810734838490821e-11</v>
+        <v>1.638403936081567e-11</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>1.824578518633755e-11</v>
+        <v>1.660594703890024e-11</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>1.898634363543903e-11</v>
+        <v>1.744982444266552e-11</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>2.025692407179166e-11</v>
+        <v>1.884055829340704e-11</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>2.197693271520184e-11</v>
+        <v>2.069423343415562e-11</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>2.406577578547423e-11</v>
+        <v>2.292693470794012e-11</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>2.644285950241395e-11</v>
+        <v>2.545474695778998e-11</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>2.902759008582617e-11</v>
+        <v>2.819375502673466e-11</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>3.173937375551602e-11</v>
+        <v>3.106004375780356e-11</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>3.449761673128862e-11</v>
+        <v>3.396969799402611e-11</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>3.722172523294916e-11</v>
+        <v>3.683880257843176e-11</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>3.983110548030276e-11</v>
+        <v>3.958344235404993e-11</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>4.224516369315456e-11</v>
+        <v>4.211970216391006e-11</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>4.438330609130968e-11</v>
+        <v>4.436366685104156e-11</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>4.616493889457332e-11</v>
+        <v>4.623142125847389e-11</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>4.751153692486737e-11</v>
+        <v>4.764121315824062e-11</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>4.839764276780142e-11</v>
+        <v>4.856677794096227e-11</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>4.88541087218276e-11</v>
+        <v>4.904072839573696e-11</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>4.891450479212033e-11</v>
+        <v>4.909851894401282e-11</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>4.861240098385406e-11</v>
+        <v>4.877560400723799e-11</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>4.798136730220317e-11</v>
+        <v>4.810743800686054e-11</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>4.705497375234212e-11</v>
+        <v>4.712947536432863e-11</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>4.586679033944531e-11</v>
+        <v>4.58771705010904e-11</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>4.44503870686872e-11</v>
+        <v>4.438597783859394e-11</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>4.283933394524218e-11</v>
+        <v>4.269135179828739e-11</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>4.106720097428468e-11</v>
+        <v>4.082874680161886e-11</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>3.916755816098915e-11</v>
+        <v>3.883361727003648e-11</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>3.717397551052997e-11</v>
+        <v>3.674141762498837e-11</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>3.51200230280816e-11</v>
+        <v>3.458760228792267e-11</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>3.303927071881846e-11</v>
+        <v>3.240762568028748e-11</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>3.096528858791695e-11</v>
+        <v>3.023694222353303e-11</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>2.893164664054553e-11</v>
+        <v>2.811100633910116e-11</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>2.697191488188646e-11</v>
+        <v>2.60652724484482e-11</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>2.511966331710833e-11</v>
+        <v>2.413519497301619e-11</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>2.340615216156776e-11</v>
+        <v>2.235377862782954e-11</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>2.183854175406467e-11</v>
+        <v>2.07284683899852e-11</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>2.040965814393395e-11</v>
+        <v>1.925150664078087e-11</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>1.911213753997292e-11</v>
+        <v>1.791493442129673e-11</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>1.793861615097893e-11</v>
+        <v>1.671079277261301e-11</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>1.688173018574932e-11</v>
+        <v>1.56311227358099e-11</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>1.593411585308146e-11</v>
+        <v>1.466796535196762e-11</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>1.508840936177267e-11</v>
+        <v>1.381336166216637e-11</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>1.43372469206203e-11</v>
+        <v>1.305935270748635e-11</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>1.36732647384217e-11</v>
+        <v>1.239797952900778e-11</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>1.308909902397422e-11</v>
+        <v>1.182128316781087e-11</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>1.257738598607519e-11</v>
+        <v>1.132130466497582e-11</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>1.213076183352198e-11</v>
+        <v>1.089008506158283e-11</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>1.174186277511191e-11</v>
+        <v>1.051966539871212e-11</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>1.140332501964234e-11</v>
+        <v>1.020208671744389e-11</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>1.110778477591061e-11</v>
+        <v>9.929390058858347e-12</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>1.084787825271406e-11</v>
+        <v>9.6936164640357e-12</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>1.061624165885005e-11</v>
+        <v>9.486806974056161e-12</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>1.040552012971438e-11</v>
+        <v>9.301012272432997e-12</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>1.021032635383588e-11</v>
+        <v>9.130408376249425e-12</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>1.002970036473373e-11</v>
+        <v>8.973953681664451e-12</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>9.863287095881471e-12</v>
+        <v>8.831259992441596e-12</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>9.710731480752616e-12</v>
+        <v>8.701939112344374e-12</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>9.571678452820694e-12</v>
+        <v>8.585602845136305e-12</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>9.445772945559231e-12</v>
+        <v>8.481862994580912e-12</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>9.332659892441753e-12</v>
+        <v>8.390331364441713e-12</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>9.231984226941777e-12</v>
+        <v>8.310619758482219e-12</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>9.143390882532839e-12</v>
+        <v>8.242339980465961e-12</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>9.066524792688456e-12</v>
+        <v>8.18510383415645e-12</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>9.001030890882156e-12</v>
+        <v>8.138523123317205e-12</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>8.946554110587463e-12</v>
+        <v>8.102209651711748e-12</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>8.902739385277899e-12</v>
+        <v>8.075775223103591e-12</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>8.869231648426992e-12</v>
+        <v>8.058831641256262e-12</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>8.845675833508286e-12</v>
+        <v>8.050990709933278e-12</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>8.831716873995247e-12</v>
+        <v>8.051864232898147e-12</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>8.82699970336146e-12</v>
+        <v>8.061064013914386e-12</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>8.831169255080415e-12</v>
+        <v>8.078201856745529e-12</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>8.843870462625652e-12</v>
+        <v>8.10288956515509e-12</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>8.864748259470695e-12</v>
+        <v>8.134738942906586e-12</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>8.893447579089067e-12</v>
+        <v>8.173361793763541e-12</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>8.929613354954293e-12</v>
+        <v>8.218369921489467e-12</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>8.9728905205399e-12</v>
+        <v>8.269375129847886e-12</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>9.022924009319411e-12</v>
+        <v>8.325989222602318e-12</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>9.079358754766351e-12</v>
+        <v>8.387824003516277e-12</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>9.14183969035424e-12</v>
+        <v>8.454491276353285e-12</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>9.210011749556612e-12</v>
+        <v>8.52560284487686e-12</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>9.283519865846986e-12</v>
+        <v>8.600770512850524e-12</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>9.362008972698888e-12</v>
+        <v>8.679606084037794e-12</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>9.445124003585842e-12</v>
+        <v>8.761721362202186e-12</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>9.532509891981372e-12</v>
+        <v>8.846728151107219e-12</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>9.623811571359005e-12</v>
+        <v>8.934238254516417e-12</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>9.718673975192265e-12</v>
+        <v>9.023863476193292e-12</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>9.816742036954675e-12</v>
+        <v>9.115215619901367e-12</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>9.917660690119764e-12</v>
+        <v>9.207906489404162e-12</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>1.002107486816105e-11</v>
+        <v>9.301547888465189e-12</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>1.012662950455207e-11</v>
+        <v>9.395751620847974e-12</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>1.023447675576622e-11</v>
+        <v>9.490667315937593e-12</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>1.034949413616904e-11</v>
+        <v>9.591455059163105e-12</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>1.047913048402367e-11</v>
+        <v>9.706001397241343e-12</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>1.063086038045016e-11</v>
+        <v>9.842220172906927e-12</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>1.081215840656858e-11</v>
+        <v>1.000802522889448e-11</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>1.103049914349898e-11</v>
+        <v>1.021133040793862e-11</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>1.129335717236142e-11</v>
+        <v>1.046004955277396e-11</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>1.160820707427597e-11</v>
+        <v>1.076209650613514e-11</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>1.198252343036269e-11</v>
+        <v>1.112538511075677e-11</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>1.242378082174163e-11</v>
+        <v>1.155782920937347e-11</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>1.293945382953286e-11</v>
+        <v>1.206734264471987e-11</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>1.353701703485643e-11</v>
+        <v>1.266183925953058e-11</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>1.422394501883241e-11</v>
+        <v>1.334923289654024e-11</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>1.500771236258086e-11</v>
+        <v>1.413743739848345e-11</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>1.589579364722092e-11</v>
+        <v>1.503436660809392e-11</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>1.689566345387541e-11</v>
+        <v>1.604793436810904e-11</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>1.801479636366048e-11</v>
+        <v>1.718605452125949e-11</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>1.926066695769929e-11</v>
+        <v>1.845664091028302e-11</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>2.064074981711085e-11</v>
+        <v>1.986760737791321e-11</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>2.216251952301524e-11</v>
+        <v>2.142686776688468e-11</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>2.383345065653252e-11</v>
+        <v>2.314233591993205e-11</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>2.566101779878274e-11</v>
+        <v>2.502192567978995e-11</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>2.765269553088596e-11</v>
+        <v>2.707355088919298e-11</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>2.981589899544238e-11</v>
+        <v>2.930506295793368e-11</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>3.214251884920507e-11</v>
+        <v>3.170800670996849e-11</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>3.458824913604412e-11</v>
+        <v>3.4235906826058e-11</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>3.710363508856313e-11</v>
+        <v>3.683687978641448e-11</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>3.963922193936578e-11</v>
+        <v>3.945904207125028e-11</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>4.214555492105568e-11</v>
+        <v>4.205051016077766e-11</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>4.457317926623644e-11</v>
+        <v>4.455940053520893e-11</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>4.687264020751173e-11</v>
+        <v>4.693382967475638e-11</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>4.899448297748516e-11</v>
+        <v>4.912191405963233e-11</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>5.088925280876037e-11</v>
+        <v>5.107177017004906e-11</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>5.250749493394098e-11</v>
+        <v>5.273151448621887e-11</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>5.379975458563064e-11</v>
+        <v>5.404926348835407e-11</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>5.471657699643295e-11</v>
+        <v>5.497313365666693e-11</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>5.520850739895157e-11</v>
+        <v>5.545124147136979e-11</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>5.522699793594884e-11</v>
+        <v>5.543266579626049e-11</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>5.476997219359844e-11</v>
+        <v>5.491579948054793e-11</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>5.390315440975984e-11</v>
+        <v>5.397098322146673e-11</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>5.269763330031026e-11</v>
+        <v>5.267425032597669e-11</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>5.122449758112698e-11</v>
+        <v>5.110163410103762e-11</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>4.955483596808724e-11</v>
+        <v>4.932916785360933e-11</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>4.775973717706828e-11</v>
+        <v>4.743288489065162e-11</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>4.591028992394737e-11</v>
+        <v>4.548881851912431e-11</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>4.407758292460176e-11</v>
+        <v>4.357300204598721e-11</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>4.233270489490869e-11</v>
+        <v>4.176146877820012e-11</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>4.073898242122055e-11</v>
+        <v>4.012184554636859e-11</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>3.930689243194149e-11</v>
+        <v>3.866452238822473e-11</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>3.802488344316636e-11</v>
+        <v>3.737603231533192e-11</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>3.688133104456905e-11</v>
+        <v>3.624282935909334e-11</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>3.586461082582349e-11</v>
+        <v>3.52513675509122e-11</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>3.49630983766036e-11</v>
+        <v>3.438810092219174e-11</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>3.416516928658403e-11</v>
+        <v>3.363948350433581e-11</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>3.345919914543716e-11</v>
+        <v>3.299196932874621e-11</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>3.283356354283772e-11</v>
+        <v>3.24320124268269e-11</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>3.227663806845967e-11</v>
+        <v>3.194606682998113e-11</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>3.177679831197689e-11</v>
+        <v>3.152058656961209e-11</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>3.132241986306332e-11</v>
+        <v>3.114202567712299e-11</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>3.090187831139287e-11</v>
+        <v>3.079683818391703e-11</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>3.050354924663947e-11</v>
+        <v>3.047147812139745e-11</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>3.011580825847704e-11</v>
+        <v>3.015239952096744e-11</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>2.97270309365795e-11</v>
+        <v>2.982605641403024e-11</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>2.932559287062076e-11</v>
+        <v>2.947890283198902e-11</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>2.889986965027476e-11</v>
+        <v>2.909739280624702e-11</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>2.84384819772487e-11</v>
+        <v>2.866825784533368e-11</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>2.79385816117522e-11</v>
+        <v>2.818788697465003e-11</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>2.740785754050225e-11</v>
+        <v>2.766459780298998e-11</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>2.685465071460764e-11</v>
+        <v>2.710744599024755e-11</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>2.628730208517713e-11</v>
+        <v>2.652548719631677e-11</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>2.571415260331949e-11</v>
+        <v>2.592777708109167e-11</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>2.514354322014347e-11</v>
+        <v>2.532337130446629e-11</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>2.458381488675785e-11</v>
+        <v>2.472132552633466e-11</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>2.404330855427139e-11</v>
+        <v>2.41306954065908e-11</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>2.353036517379286e-11</v>
+        <v>2.356053660512875e-11</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>2.305332569643101e-11</v>
+        <v>2.301990478184254e-11</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>2.262053107329463e-11</v>
+        <v>2.25178555966262e-11</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>2.223861772312366e-11</v>
+        <v>2.206189309038898e-11</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>2.190572294860542e-11</v>
+        <v>2.165178464261769e-11</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>2.161734029511992e-11</v>
+        <v>2.128489104662674e-11</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>2.136896246703737e-11</v>
+        <v>2.09585723301676e-11</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>2.115608216872793e-11</v>
+        <v>2.067018852099178e-11</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>2.097419210456182e-11</v>
+        <v>2.041709964685073e-11</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>2.081878497890923e-11</v>
+        <v>2.019666573549596e-11</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>2.068545893203905e-11</v>
+        <v>2.00062900830095e-11</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>2.057178853919141e-11</v>
+        <v>1.984418706635497e-11</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>2.047710368806802e-11</v>
+        <v>1.970929140007322e-11</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>2.040079528251564e-11</v>
+        <v>1.96005628382482e-11</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>2.034225422638099e-11</v>
+        <v>1.951696113496391e-11</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>2.030087142351086e-11</v>
+        <v>1.945744604430433e-11</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>2.027603777775199e-11</v>
+        <v>1.942097732035346e-11</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>2.02671441929511e-11</v>
+        <v>1.940651471719521e-11</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>2.027358157295499e-11</v>
+        <v>1.941301798891361e-11</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>2.029474082161039e-11</v>
+        <v>1.943944688959264e-11</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>2.033001284276406e-11</v>
+        <v>1.948476117331629e-11</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>2.037878854026277e-11</v>
+        <v>1.954792059416852e-11</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>2.044045881795325e-11</v>
+        <v>1.962788490623332e-11</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>2.051441457968227e-11</v>
+        <v>1.972361386359468e-11</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>2.060004672929658e-11</v>
+        <v>1.983406722033656e-11</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>2.069674617064293e-11</v>
+        <v>1.995820473054296e-11</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>2.080390380756808e-11</v>
+        <v>2.009498614829785e-11</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>2.092091054391878e-11</v>
+        <v>2.024337122768522e-11</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>2.104715728354179e-11</v>
+        <v>2.040231972278904e-11</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>2.118203493028386e-11</v>
+        <v>2.05707913876933e-11</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>2.132493438799173e-11</v>
+        <v>2.074774597648196e-11</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>2.147524656051218e-11</v>
+        <v>2.093214324323902e-11</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>2.163236235169195e-11</v>
+        <v>2.112294294204846e-11</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>2.179567266537779e-11</v>
+        <v>2.131910482699425e-11</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>2.196456840541646e-11</v>
+        <v>2.151958865216038e-11</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>2.213844047565473e-11</v>
+        <v>2.172335417163083e-11</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>2.231667977993931e-11</v>
+        <v>2.192936113948957e-11</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>2.249867722211701e-11</v>
+        <v>2.213656930982061e-11</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>2.268389897752711e-11</v>
+        <v>2.234403684062136e-11</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>2.287290008079968e-11</v>
+        <v>2.255224537721182e-11</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>2.30670550346129e-11</v>
+        <v>2.276274787172607e-11</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>2.326775836673581e-11</v>
+        <v>2.297712345549619e-11</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>2.347640460493745e-11</v>
+        <v>2.319695125985426e-11</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>2.369438827698684e-11</v>
+        <v>2.342381041613232e-11</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>2.392310391065302e-11</v>
+        <v>2.365928005566247e-11</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>2.416394603370504e-11</v>
+        <v>2.390493930977677e-11</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>2.44183091739119e-11</v>
+        <v>2.416236730980729e-11</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>2.468758785904266e-11</v>
+        <v>2.44331431870861e-11</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>2.497317661686634e-11</v>
+        <v>2.471884607294527e-11</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>2.527646997515198e-11</v>
+        <v>2.502105509871687e-11</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>2.559886246166862e-11</v>
+        <v>2.534134939573298e-11</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>2.594174860418527e-11</v>
+        <v>2.568130809532565e-11</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>2.630652293047098e-11</v>
+        <v>2.604251032882696e-11</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>2.669457996829441e-11</v>
+        <v>2.642653522756861e-11</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>2.710731424542533e-11</v>
+        <v>2.683496192288339e-11</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>2.75461202896324e-11</v>
+        <v>2.726936954610304e-11</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>2.801239262868466e-11</v>
+        <v>2.77313372285596e-11</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>2.850752579035115e-11</v>
+        <v>2.822244410158516e-11</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>2.90329143024009e-11</v>
+        <v>2.874426929651176e-11</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>2.958995269260294e-11</v>
+        <v>2.929839194467152e-11</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>3.018003548872632e-11</v>
+        <v>2.988639117739647e-11</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>3.080455721854005e-11</v>
+        <v>3.05098461260187e-11</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>3.146491240981317e-11</v>
+        <v>3.117033592187027e-11</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>3.216249559031472e-11</v>
+        <v>3.186943969628326e-11</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>3.289870128781373e-11</v>
+        <v>3.260873658058973e-11</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>3.367492403007924e-11</v>
+        <v>3.338980570612176e-11</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>3.449255834488028e-11</v>
+        <v>3.421422620421141e-11</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>3.535299875998587e-11</v>
+        <v>3.508357720619075e-11</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>3.625763980316506e-11</v>
+        <v>3.599943784339187e-11</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>3.720787600218688e-11</v>
+        <v>3.696338724714682e-11</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>3.820510188482037e-11</v>
+        <v>3.797700454878768e-11</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>3.925071197883455e-11</v>
+        <v>3.904186887964651e-11</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>4.034610081199845e-11</v>
+        <v>4.015955937105539e-11</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>4.149266291208113e-11</v>
+        <v>4.13316551543464e-11</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>4.269179280685159e-11</v>
+        <v>4.255973536085159e-11</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>4.394487202920687e-11</v>
+        <v>4.384536161660546e-11</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>4.525247329762841e-11</v>
+        <v>4.518900599962782e-11</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>4.661389862999967e-11</v>
+        <v>4.658942883640762e-11</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>4.802833872070203e-11</v>
+        <v>4.804524049035423e-11</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>4.949498426411692e-11</v>
+        <v>4.955505132487695e-11</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>5.101302595462572e-11</v>
+        <v>5.111747170338511e-11</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>5.258165448660984e-11</v>
+        <v>5.273111198928805e-11</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>5.420006055445068e-11</v>
+        <v>5.439458254599507e-11</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>5.586743485252964e-11</v>
+        <v>5.610649373691552e-11</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>5.758296807522814e-11</v>
+        <v>5.786545592545875e-11</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>5.934585091692758e-11</v>
+        <v>5.967007947503404e-11</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>6.115527407200934e-11</v>
+        <v>6.151897474905074e-11</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>6.301042823485482e-11</v>
+        <v>6.341075211091817e-11</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>6.491050409984546e-11</v>
+        <v>6.534402192404568e-11</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>6.685469236136263e-11</v>
+        <v>6.731739455184257e-11</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>6.884218371378581e-11</v>
+        <v>6.932948035771621e-11</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>7.087216885150022e-11</v>
+        <v>7.137888970507982e-11</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>7.294383846888538e-11</v>
+        <v>7.346423295734083e-11</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>7.505638326032271e-11</v>
+        <v>7.558412047790852e-11</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>7.72090949156519e-11</v>
+        <v>7.773728642849474e-11</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>7.940417056205838e-11</v>
+        <v>7.992602640037834e-11</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>8.164707877161407e-11</v>
+        <v>8.215664605945334e-11</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>8.394346263654303e-11</v>
+        <v>8.44356649950806e-11</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>8.629896524906919e-11</v>
+        <v>8.676960279662091e-11</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>8.871922970141666e-11</v>
+        <v>8.916497905343516e-11</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>9.120989908580937e-11</v>
+        <v>9.162831335488412e-11</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>9.377661649447138e-11</v>
+        <v>9.416612529032869e-11</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>9.642502501962663e-11</v>
+        <v>9.678493444912964e-11</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>9.916076775349918e-11</v>
+        <v>9.949126042064781e-11</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>1.01989487788313e-10</v>
+        <v>1.022916227942441e-10</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>1.049168282162922e-10</v>
+        <v>1.051925411592792e-10</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>1.079484321296607e-10</v>
+        <v>1.082005351051141e-10</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>1.110899426206424e-10</v>
+        <v>1.113221242211096e-10</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>1.143470027814615e-10</v>
+        <v>1.145638280966264e-10</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>1.177248936293377e-10</v>
+        <v>1.17931788894691e-10</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>1.212157405040162e-10</v>
+        <v>1.214184353237448e-10</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>1.247950930148083e-10</v>
+        <v>1.249989175805782e-10</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>1.284374432147307e-10</v>
+        <v>1.286472834671989e-10</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>1.321172831568004e-10</v>
+        <v>1.323375807856146e-10</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>1.358091048940343e-10</v>
+        <v>1.360438573378329e-10</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>1.394874004794493e-10</v>
+        <v>1.397401609258616e-10</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>1.431266619660624e-10</v>
+        <v>1.434005393517083e-10</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>1.467013814068903e-10</v>
+        <v>1.469990404173808e-10</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>1.501860508549501e-10</v>
+        <v>1.505097119248866e-10</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>1.535555128926329e-10</v>
+        <v>1.539069632580963e-10</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>1.567971638560888e-10</v>
+        <v>1.571781533851436e-10</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>1.599141128718008e-10</v>
+        <v>1.603268495021025e-10</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>1.629104613978669e-10</v>
+        <v>1.633576424257194e-10</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>1.657903108923852e-10</v>
+        <v>1.66275122972741e-10</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>1.685577628134539e-10</v>
+        <v>1.69083881959914e-10</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>1.712169186191711e-10</v>
+        <v>1.717885102039847e-10</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>1.737718797676348e-10</v>
+        <v>1.743935985217e-10</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>1.76226747716941e-10</v>
+        <v>1.76903737729804e-10</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>1.785856239251926e-10</v>
+        <v>1.793235186450481e-10</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>1.80852609850485e-10</v>
+        <v>1.816575320841765e-10</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>1.830318069509166e-10</v>
+        <v>1.839103688639358e-10</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>1.851273166845853e-10</v>
+        <v>1.860866198010725e-10</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>1.871400481321706e-10</v>
+        <v>1.88187060615363e-10</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>1.890533208300533e-10</v>
+        <v>1.901914463863641e-10</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>1.908444288244494e-10</v>
+        <v>1.92072331344154e-10</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>1.924906608300395e-10</v>
+        <v>1.938022633472819e-10</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>1.939693055615042e-10</v>
+        <v>1.95353790254297e-10</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>1.952576517335241e-10</v>
+        <v>1.966994599237483e-10</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>1.963329880607796e-10</v>
+        <v>1.978118202141852e-10</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>1.971726032579515e-10</v>
+        <v>1.986634189841567e-10</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>1.977537860397201e-10</v>
+        <v>1.99226804092212e-10</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>1.98053825120766e-10</v>
+        <v>1.994745233969002e-10</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>1.980500089139661e-10</v>
+        <v>1.993791252194128e-10</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>1.977175569673608e-10</v>
+        <v>1.98916329293361e-10</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>1.97024680040063e-10</v>
+        <v>1.980725992926371e-10</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>1.95938106129269e-10</v>
+        <v>1.968366718523618e-10</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>1.944245632321747e-10</v>
+        <v>1.951972836076553e-10</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>1.924507793459764e-10</v>
+        <v>1.931431711936381e-10</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>1.899860206916014e-10</v>
+        <v>1.906649085241847e-10</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>1.870745154906056e-10</v>
+        <v>1.878073303292616e-10</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>1.838460188409269e-10</v>
+        <v>1.846771794799133e-10</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>1.804349485609074e-10</v>
+        <v>1.813845739307225e-10</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>1.769757224688893e-10</v>
+        <v>1.780396316362723e-10</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>1.735853083528801e-10</v>
+        <v>1.747379961337309e-10</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>1.702775747067768e-10</v>
+        <v>1.714897923571764e-10</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>1.670286611628676e-10</v>
+        <v>1.682738499775249e-10</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>1.638146509832592e-10</v>
+        <v>1.650689519078637e-10</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>1.606116274300589e-10</v>
+        <v>1.618538810612801e-10</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>1.573956737653734e-10</v>
+        <v>1.586074203508616e-10</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>1.541428732513099e-10</v>
+        <v>1.553083526896954e-10</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>1.508293091499752e-10</v>
+        <v>1.51935460990869e-10</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>1.474310647234765e-10</v>
+        <v>1.484675281674697e-10</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>1.439242232339241e-10</v>
+        <v>1.448833371325882e-10</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>1.402848679434146e-10</v>
+        <v>1.411616707993015e-10</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>1.364937230656687e-10</v>
+        <v>1.372858896153211e-10</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>1.325715677721683e-10</v>
+        <v>1.332788616490506e-10</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>1.285596626630464e-10</v>
+        <v>1.291836565259457e-10</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>1.244994333963696e-10</v>
+        <v>1.250435066739355e-10</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>1.204323056302201e-10</v>
+        <v>1.20901644520965e-10</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>1.163997050226759e-10</v>
+        <v>1.16801302494975e-10</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>1.124430572318153e-10</v>
+        <v>1.127857130239066e-10</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>1.086037879157165e-10</v>
+        <v>1.088981085357007e-10</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>1.049233227324575e-10</v>
+        <v>1.051817214582982e-10</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>1.014424022347021e-10</v>
+        <v>1.016790523907378e-10</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>9.817651017398973e-11</v>
+        <v>9.840562264296009e-11</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>9.510909575004964e-11</v>
+        <v>9.534273424946519e-11</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>9.222154344848737e-11</v>
+        <v>9.246948371924054e-11</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>8.94952377549086e-11</v>
+        <v>8.976496756127363e-11</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>8.691156315491893e-11</v>
+        <v>8.720828228455197e-11</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>8.445190413412395e-11</v>
+        <v>8.477852439806301e-11</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>8.209764517812935e-11</v>
+        <v>8.245479041079426e-11</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>7.983017077254066e-11</v>
+        <v>8.021617683173317e-11</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>7.763086540296354e-11</v>
+        <v>7.804178016986727e-11</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>7.54811135550036e-11</v>
+        <v>7.591069693418399e-11</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>7.336229971426646e-11</v>
+        <v>7.380202363367084e-11</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>7.125580836635773e-11</v>
+        <v>7.169485677731531e-11</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>6.914302399688305e-11</v>
+        <v>6.956829287410487e-11</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>6.700535264380014e-11</v>
+        <v>6.740145232045206e-11</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>6.484439903704804e-11</v>
+        <v>6.519584261639621e-11</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>6.271944389742672e-11</v>
+        <v>6.301689611341654e-11</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>6.069999565753594e-11</v>
+        <v>6.094138098830907e-11</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>5.885556274997543e-11</v>
+        <v>5.904606541786978e-11</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>5.725565360734499e-11</v>
+        <v>5.740771757889472e-11</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>5.596977666224438e-11</v>
+        <v>5.610310564817987e-11</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>5.506744034727335e-11</v>
+        <v>5.520899780252128e-11</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>5.456252394651105e-11</v>
+        <v>5.474109226689256e-11</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>5.418508706761074e-11</v>
+        <v>5.440350863480318e-11</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>5.364186027213689e-11</v>
+        <v>5.387443693416863e-11</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>5.294420207642633e-11</v>
+        <v>5.31650384687821e-11</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>5.219008407027241e-11</v>
+        <v>5.23811463567383e-11</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>5.147748388575089e-11</v>
+        <v>5.162860032060664e-11</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>5.090437915494234e-11</v>
+        <v>5.101324008296155e-11</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>5.056874750992266e-11</v>
+        <v>5.064090536637247e-11</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>5.056856658277094e-11</v>
+        <v>5.061743589341237e-11</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>5.099798383179439e-11</v>
+        <v>5.104450075535384e-11</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>5.185528587177429e-11</v>
+        <v>5.191938729520057e-11</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>5.303837408978436e-11</v>
+        <v>5.313007455881356e-11</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>5.444041421895153e-11</v>
+        <v>5.455938499401036e-11</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>5.595457199240266e-11</v>
+        <v>5.609014104860854e-11</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>5.747913792326648e-11</v>
+        <v>5.761182261137147e-11</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>5.894901411953508e-11</v>
+        <v>5.906147054551422e-11</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>6.031503033541815e-11</v>
+        <v>6.039681681983347e-11</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>6.15280816899227e-11</v>
+        <v>6.157567831648373e-11</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>6.253906330205595e-11</v>
+        <v>6.255587191761974e-11</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>6.329911075725174e-11</v>
+        <v>6.329541151365105e-11</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>6.377827234724929e-11</v>
+        <v>6.376780571213195e-11</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>6.397882997744571e-11</v>
+        <v>6.397297133095515e-11</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>6.390620998964458e-11</v>
+        <v>6.391340134776081e-11</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>6.356583872564947e-11</v>
+        <v>6.359158874018904e-11</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>6.2963142527264e-11</v>
+        <v>6.301002648587992e-11</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>6.210436350234583e-11</v>
+        <v>6.217212918123535e-11</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>6.100802358267457e-11</v>
+        <v>6.109518466003919e-11</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>5.970213548986843e-11</v>
+        <v>5.980720305805716e-11</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>5.821495827251536e-11</v>
+        <v>5.833647280108157e-11</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>5.657475097920333e-11</v>
+        <v>5.671128231490464e-11</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>5.480977265852035e-11</v>
+        <v>5.495992002531869e-11</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>5.29482823590544e-11</v>
+        <v>5.311067435811602e-11</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>5.101853912939348e-11</v>
+        <v>5.119183373908889e-11</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>4.904880201812552e-11</v>
+        <v>4.923168659402958e-11</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>4.706726975046229e-11</v>
+        <v>4.725846099540582e-11</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>4.509519463282004e-11</v>
+        <v>4.529343514825179e-11</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>4.314052365649853e-11</v>
+        <v>4.334457533689199e-11</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>4.120970071386208e-11</v>
+        <v>4.141834400048292e-11</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>3.930916969727508e-11</v>
+        <v>3.95212035781811e-11</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>3.744537449910189e-11</v>
+        <v>3.765961650914305e-11</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>3.562475901170686e-11</v>
+        <v>3.584004523252529e-11</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>3.385376712745604e-11</v>
+        <v>3.406895218748599e-11</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>3.213884273870873e-11</v>
+        <v>3.235279981317662e-11</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>3.048642973783592e-11</v>
+        <v>3.069805054876032e-11</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>2.890297201719557e-11</v>
+        <v>2.911116683338721e-11</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>2.739491346915818e-11</v>
+        <v>2.759861110621992e-11</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>2.596869798608361e-11</v>
+        <v>2.61668458064105e-11</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>2.463076946033772e-11</v>
+        <v>2.482233337311693e-11</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>2.338756583228488e-11</v>
+        <v>2.357153038114884e-11</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>2.224269424215154e-11</v>
+        <v>2.241810429342184e-11</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>2.119241032630833e-11</v>
+        <v>2.135847933212648e-11</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>2.023179176519862e-11</v>
+        <v>2.038791911088778e-11</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>1.935591623926577e-11</v>
+        <v>1.950168724333077e-11</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>1.855986142895315e-11</v>
+        <v>1.869504734308049e-11</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>1.783870501470413e-11</v>
+        <v>1.796326302376196e-11</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>1.718752467696208e-11</v>
+        <v>1.730159789900023e-11</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>1.660139809617038e-11</v>
+        <v>1.670531558242031e-11</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>1.607540295277238e-11</v>
+        <v>1.616967968764725e-11</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>1.560461692721146e-11</v>
+        <v>1.568995382830605e-11</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>1.518411769993099e-11</v>
+        <v>1.526140161802177e-11</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>1.480898295137434e-11</v>
+        <v>1.487928667041943e-11</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>1.447429036198487e-11</v>
+        <v>1.453887259912406e-11</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>1.417544474221328e-11</v>
+        <v>1.423567159041166e-11</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>1.391038562205481e-11</v>
+        <v>1.396712185978993e-11</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>1.36782360646552e-11</v>
+        <v>1.373156094097686e-11</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>1.347812581192253e-11</v>
+        <v>1.352733144260758e-11</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>1.330918460576493e-11</v>
+        <v>1.335277597331721e-11</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>1.317054218809051e-11</v>
+        <v>1.320623714174089e-11</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>1.306132830080739e-11</v>
+        <v>1.308605755651372e-11</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>1.298067268582366e-11</v>
+        <v>1.299057982627084e-11</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>1.292770508504746e-11</v>
+        <v>1.291814655964736e-11</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>1.289797280185131e-11</v>
+        <v>1.286438840836524e-11</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>1.286817593047219e-11</v>
+        <v>1.281066841882628e-11</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>1.280883844111173e-11</v>
+        <v>1.273367422371396e-11</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>1.269048072153305e-11</v>
+        <v>1.261009074375488e-11</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>1.248362836619563e-11</v>
+        <v>1.241660769617176e-11</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>1.220564074495872e-11</v>
+        <v>1.217305885892188e-11</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>1.201907124559034e-11</v>
+        <v>1.203140157561046e-11</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>1.192424020392347e-11</v>
+        <v>1.197390356400436e-11</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>1.178938003398021e-11</v>
+        <v>1.184775868417074e-11</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>1.155160405933393e-11</v>
+        <v>1.158387112020044e-11</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>1.126483578389063e-11</v>
+        <v>1.125431771598998e-11</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>1.099380215906891e-11</v>
+        <v>1.094423198066882e-11</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>1.079952888110028e-11</v>
+        <v>1.073378861739213e-11</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>1.068197174509095e-11</v>
+        <v>1.062134311522073e-11</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>1.059098442627722e-11</v>
+        <v>1.05381259802586e-11</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>1.047828268027187e-11</v>
+        <v>1.041827068286046e-11</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>1.033271419640288e-11</v>
+        <v>1.025019318960074e-11</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>1.016628692040591e-11</v>
+        <v>1.005616702320868e-11</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>9.991354736058849e-12</v>
+        <v>9.85896961403225e-12</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>9.81636507853976e-12</v>
+        <v>9.674454248514768e-12</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>9.639090475914624e-12</v>
+        <v>9.499553039270167e-12</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>9.455496679059217e-12</v>
+        <v>9.327995603103442e-12</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>9.261549438849302e-12</v>
+        <v>9.153511556819594e-12</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>9.053214506160641e-12</v>
+        <v>8.969830517223618e-12</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>8.826457631869006e-12</v>
+        <v>8.770682101120512e-12</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>8.577244566850167e-12</v>
+        <v>8.549795925315274e-12</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>8.301541061979888e-12</v>
+        <v>8.300901606612904e-12</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>7.995312868133932e-12</v>
+        <v>8.017728761818396e-12</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>7.65865201566201e-12</v>
+        <v>7.69834876146141e-12</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>7.323622414578991e-12</v>
+        <v>7.374474426801577e-12</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>7.037216561199342e-12</v>
+        <v>7.093526735945277e-12</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>6.846511194920021e-12</v>
+        <v>6.903015309253865e-12</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>6.798583055137999e-12</v>
+        <v>6.850449767088696e-12</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>6.940500567958805e-12</v>
+        <v>6.983331501431376e-12</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>7.302548679958282e-12</v>
+        <v>7.33254985063148e-12</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>7.863029350079312e-12</v>
+        <v>7.877542117899848e-12</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>8.590210817531946e-12</v>
+        <v>8.587814370791709e-12</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>9.452361321526233e-12</v>
+        <v>9.432872676862287e-12</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>1.041774910127223e-11</v>
+        <v>1.038222310366681e-11</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>1.145464239597998e-11</v>
+        <v>1.140537171876052e-11</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>1.253130944485954e-11</v>
+        <v>1.247182458969863e-11</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>1.361601848712097e-11</v>
+        <v>1.355108778403637e-11</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>1.467705587735715e-11</v>
+        <v>1.46125433189257e-11</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>1.568291102497719e-11</v>
+        <v>1.562418273404059e-11</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>1.660220085045175e-11</v>
+        <v>1.65531243996128e-11</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>1.740354424791803e-11</v>
+        <v>1.736647317063923e-11</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>1.805556011150766e-11</v>
+        <v>1.803133390211112e-11</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>1.852705147116759e-11</v>
+        <v>1.851500045507866e-11</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>1.880751499114056e-11</v>
+        <v>1.880600765481442e-11</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>1.892581105928891e-11</v>
+        <v>1.893329518893216e-11</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>1.891520946585115e-11</v>
+        <v>1.89303287725561e-11</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>1.880898000106618e-11</v>
+        <v>1.883057412081088e-11</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>1.864023547193577e-11</v>
+        <v>1.866733958794683e-11</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>1.843047133619477e-11</v>
+        <v>1.846228823238192e-11</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>1.818178353254979e-11</v>
+        <v>1.821763692623971e-11</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>1.789442512737069e-11</v>
+        <v>1.793375523611392e-11</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>1.756864918702734e-11</v>
+        <v>1.76110127285983e-11</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>1.72047087778896e-11</v>
+        <v>1.72497789702866e-11</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>1.680285696632734e-11</v>
+        <v>1.685042352777255e-11</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>1.636374272954028e-11</v>
+        <v>1.641370164496152e-11</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>1.589129212609886e-11</v>
+        <v>1.59435609410053e-11</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>1.539104958757379e-11</v>
+        <v>1.544552557628896e-11</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>1.48685709932385e-11</v>
+        <v>1.492513086299959e-11</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>1.432941222236641e-11</v>
+        <v>1.438791211332429e-11</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>1.377912915423097e-11</v>
+        <v>1.383940463945018e-11</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>1.322327766810558e-11</v>
+        <v>1.328514375356434e-11</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>1.266741364326368e-11</v>
+        <v>1.273066476785388e-11</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>1.211709295897869e-11</v>
+        <v>1.21815029945059e-11</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>1.157787149452403e-11</v>
+        <v>1.16431937457075e-11</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>1.105530512917315e-11</v>
+        <v>1.112127233364578e-11</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>1.055494974219945e-11</v>
+        <v>1.062127407050784e-11</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>1.008210452058411e-11</v>
+        <v>1.014847911133676e-11</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>9.638498270591987e-12</v>
+        <v>9.704618583120848e-12</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>9.223243404001152e-12</v>
+        <v>9.288822865708646e-12</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>8.835392236610333e-12</v>
+        <v>8.900162602373339e-12</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>8.473997084218245e-12</v>
+        <v>8.537708436388094e-12</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>8.138110262623608e-12</v>
+        <v>8.200531011026097e-12</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>7.826784087625144e-12</v>
+        <v>7.887700969560525e-12</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>7.539070875021574e-12</v>
+        <v>7.598288955264558e-12</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>7.27402294061162e-12</v>
+        <v>7.331365611411372e-12</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>7.030692600193996e-12</v>
+        <v>7.086001581274144e-12</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>6.808132169567633e-12</v>
+        <v>6.861267508126263e-12</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>6.605393964530635e-12</v>
+        <v>6.656234035240286e-12</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>6.421530300882505e-12</v>
+        <v>6.469971805890183e-12</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>6.255593494421252e-12</v>
+        <v>6.301551463348413e-12</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>6.106635860946241e-12</v>
+        <v>6.150043650888806e-12</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>5.973709716255735e-12</v>
+        <v>6.014519011784078e-12</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>5.855867376148608e-12</v>
+        <v>5.894048189307561e-12</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>5.752161156423575e-12</v>
+        <v>5.787701826732433e-12</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>5.661643372879363e-12</v>
+        <v>5.694550567331874e-12</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>5.583366341314688e-12</v>
+        <v>5.613665054379064e-12</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>5.516382377528272e-12</v>
+        <v>5.544115931147179e-12</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>5.459743797318838e-12</v>
+        <v>5.484973840909399e-12</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>5.4125029164851e-12</v>
+        <v>5.4353094269389e-12</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>5.373712050825786e-12</v>
+        <v>5.394193332508865e-12</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>5.342423516139609e-12</v>
+        <v>5.360696200892469e-12</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>5.317689628225293e-12</v>
+        <v>5.333888675362892e-12</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>5.298562702881559e-12</v>
+        <v>5.312841399193313e-12</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>5.284095055907127e-12</v>
+        <v>5.296625015656911e-12</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>5.273339003100716e-12</v>
+        <v>5.284310168026863e-12</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>5.265346860261047e-12</v>
+        <v>5.274967499576347e-12</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>5.259170943186841e-12</v>
+        <v>5.267667653578544e-12</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>5.253863567676817e-12</v>
+        <v>5.26148127330663e-12</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>5.248477049529699e-12</v>
+        <v>5.255479002033787e-12</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>5.242063704544202e-12</v>
+        <v>5.248731483033192e-12</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>5.233675848519051e-12</v>
+        <v>5.240309359578023e-12</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>5.222365797252963e-12</v>
+        <v>5.229283274941458e-12</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>5.20718586654466e-12</v>
+        <v>5.214723872396676e-12</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>5.187193932740814e-12</v>
+        <v>5.195707187925866e-12</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>5.162155664094291e-12</v>
+        <v>5.171995685507429e-12</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>5.133230585552689e-12</v>
+        <v>5.144703613803389e-12</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>5.101741082634383e-12</v>
+        <v>5.115103166281691e-12</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>5.069009540857738e-12</v>
+        <v>5.084466536410276e-12</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>5.036358345741128e-12</v>
+        <v>5.05406591765709e-12</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>5.00510988280292e-12</v>
+        <v>5.025173503490074e-12</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>4.976586537561487e-12</v>
+        <v>4.999061487377175e-12</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>4.952110695535195e-12</v>
+        <v>4.977002062786331e-12</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>4.933004742242416e-12</v>
+        <v>4.96026742318549e-12</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>4.920591063201529e-12</v>
+        <v>4.9501297620426e-12</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>4.91619204393088e-12</v>
+        <v>4.947861272825586e-12</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>4.92113006994885e-12</v>
+        <v>4.9547341490024e-12</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>4.936727526773835e-12</v>
+        <v>4.972020584041011e-12</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>4.964306799924139e-12</v>
+        <v>5.000992771409297e-12</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>5.005190274918195e-12</v>
+        <v>5.042922904575265e-12</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>5.060700337274352e-12</v>
+        <v>5.099083177006838e-12</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>5.132159372510981e-12</v>
+        <v>5.170745782171961e-12</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>5.220889766146452e-12</v>
+        <v>5.259182913538574e-12</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>5.328213903699135e-12</v>
+        <v>5.365666764574623e-12</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>5.4554541706874e-12</v>
+        <v>5.49146952874805e-12</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>5.603932952629614e-12</v>
+        <v>5.637863399526798e-12</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>5.774972635044152e-12</v>
+        <v>5.806120570378813e-12</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>5.96989560344938e-12</v>
+        <v>5.997513234772037e-12</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>6.19002424336367e-12</v>
+        <v>6.213313586174414e-12</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>6.436680940305392e-12</v>
+        <v>6.454793818053887e-12</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>6.711188079792914e-12</v>
+        <v>6.723226123878399e-12</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>7.014868047344608e-12</v>
+        <v>7.019882697115894e-12</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>7.348800394637226e-12</v>
+        <v>7.345826897857651e-12</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>7.711391486468227e-12</v>
+        <v>7.699823186508068e-12</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>8.099391596810622e-12</v>
+        <v>8.07921181078097e-12</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>8.509526320524024e-12</v>
+        <v>8.481311794731447e-12</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>8.938521252468069e-12</v>
+        <v>8.903442162414602e-12</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>9.383101987502377e-12</v>
+        <v>9.34292193788553e-12</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>9.83999412048657e-12</v>
+        <v>9.797070145199326e-12</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>1.030592324628027e-11</v>
+        <v>1.026320580841109e-11</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>1.077761495974311e-11</v>
+        <v>1.073864795157592e-11</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>1.125179485573469e-11</v>
+        <v>1.122071559874891e-11</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>1.172503456003076e-11</v>
+        <v>1.170644857876384e-11</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>1.219268292352487e-11</v>
+        <v>1.219066943828872e-11</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>1.264950568970539e-11</v>
+        <v>1.266714336366361e-11</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>1.309026501094499e-11</v>
+        <v>1.312962902938665e-11</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>1.350972303961636e-11</v>
+        <v>1.357188510995602e-11</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>1.390264192809218e-11</v>
+        <v>1.398767027986986e-11</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>1.426378382874514e-11</v>
+        <v>1.437074321362634e-11</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>1.458791089394791e-11</v>
+        <v>1.47148625857236e-11</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>1.486978527607319e-11</v>
+        <v>1.501378707065982e-11</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>1.510416912749344e-11</v>
+        <v>1.526127534293293e-11</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>1.528582460058198e-11</v>
+        <v>1.545108607704173e-11</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>1.540951384771077e-11</v>
+        <v>1.557697794748365e-11</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>1.546999902125298e-11</v>
+        <v>1.563270962875732e-11</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>1.546204227358107e-11</v>
+        <v>1.561203979536071e-11</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>1.538175328053633e-11</v>
+        <v>1.551045680733951e-11</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>1.523358569420234e-11</v>
+        <v>1.533415938003329e-11</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>1.502518292076133e-11</v>
+        <v>1.50934406076131e-11</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>1.476419477202498e-11</v>
+        <v>1.479860180653696e-11</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>1.445827105980495e-11</v>
+        <v>1.445994429326287e-11</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>1.411506159591292e-11</v>
+        <v>1.408776938424882e-11</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>1.374221619216055e-11</v>
+        <v>1.369237839595285e-11</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>1.334738466035953e-11</v>
+        <v>1.328407264483294e-11</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>1.29382168123215e-11</v>
+        <v>1.28731534473471e-11</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>1.252229804226914e-11</v>
+        <v>1.246970098527888e-11</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>1.210581641927207e-11</v>
+        <v>1.20789986597873e-11</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>1.169360796476355e-11</v>
+        <v>1.170168852145424e-11</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>1.129045334117139e-11</v>
+        <v>1.133822258277039e-11</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>1.090113321092336e-11</v>
+        <v>1.098905285622641e-11</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>1.053042823644725e-11</v>
+        <v>1.065463135431299e-11</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>1.018311908017086e-11</v>
+        <v>1.03354100895208e-11</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>9.863986404521976e-12</v>
+        <v>1.003184107434051e-11</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>9.577810871928386e-12</v>
+        <v>9.744376321262811e-12</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>9.329363883414641e-12</v>
+        <v>9.473467485960211e-12</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>9.120397590003584e-12</v>
+        <v>9.219449900131223e-12</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>8.94531591121932e-12</v>
+        <v>8.982375786924427e-12</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>8.79742618719612e-12</v>
+        <v>8.762255121091502e-12</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>8.670035758068256e-12</v>
+        <v>8.559097877384121e-12</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>8.556451963969994e-12</v>
+        <v>8.372914030553961e-12</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>8.449982145035612e-12</v>
+        <v>8.203713555352695e-12</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>8.343933641399375e-12</v>
+        <v>8.051506426531995e-12</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>8.232616764361454e-12</v>
+        <v>7.916330865139821e-12</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>8.118049854934876e-12</v>
+        <v>7.79844217053943e-12</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>8.005825109286159e-12</v>
+        <v>7.698196291220362e-12</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>7.901554296812925e-12</v>
+        <v>7.615949726905626e-12</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>7.810849186912787e-12</v>
+        <v>7.552058977318236e-12</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>7.739321548983374e-12</v>
+        <v>7.506880542181208e-12</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>7.692495885538742e-12</v>
+        <v>7.480778929053553e-12</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>7.673103021704357e-12</v>
+        <v>7.474375000590245e-12</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>7.680557481877431e-12</v>
+        <v>7.488593931817955e-12</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>7.714081034332668e-12</v>
+        <v>7.524378585566027e-12</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>7.772895447344625e-12</v>
+        <v>7.582671824663615e-12</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>7.856222489188112e-12</v>
+        <v>7.664416511940137e-12</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>7.963283928137766e-12</v>
+        <v>7.770555510224836e-12</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>8.093301532468265e-12</v>
+        <v>7.902031682347003e-12</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>8.245475712431054e-12</v>
+        <v>8.05971336519971e-12</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>8.418497717546954e-12</v>
+        <v>8.242692248103425e-12</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>8.610539473881251e-12</v>
+        <v>8.448247911350626e-12</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>8.81974951668215e-12</v>
+        <v>8.673578316138087e-12</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>9.044276381197849e-12</v>
+        <v>8.915881423662589e-12</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>9.282268602676553e-12</v>
+        <v>9.172355195120912e-12</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>9.531874716366463e-12</v>
+        <v>9.44019759170984e-12</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>9.791243257515784e-12</v>
+        <v>9.716606574626146e-12</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>1.005852276137271e-11</v>
+        <v>9.99878010506661e-12</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>1.033188654688019e-11</v>
+        <v>1.028405997172757e-11</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>1.060968932821179e-11</v>
+        <v>1.057084065632519e-11</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>1.089036643326224e-11</v>
+        <v>1.085798446710686e-11</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>1.117235355566292e-11</v>
+        <v>1.114435583480372e-11</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>1.145408638904518e-11</v>
+        <v>1.142881919014693e-11</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>1.173400062704041e-11</v>
+        <v>1.171023896386763e-11</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>1.201053196327997e-11</v>
+        <v>1.198747958669698e-11</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>1.228211609139525e-11</v>
+        <v>1.225940548936612e-11</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>1.254718870501762e-11</v>
+        <v>1.252488110260621e-11</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>1.280416183429914e-11</v>
+        <v>1.278274551394099e-11</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>1.304913725267166e-11</v>
+        <v>1.302936356294147e-11</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>1.327400025212505e-11</v>
+        <v>1.325658430507375e-11</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>1.347018739496756e-11</v>
+        <v>1.345577621350051e-11</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>1.362913524350745e-11</v>
+        <v>1.361830776138443e-11</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>1.374228036005294e-11</v>
+        <v>1.373554742188817e-11</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>1.380105930691231e-11</v>
+        <v>1.379886366817443e-11</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>1.379690864639379e-11</v>
+        <v>1.379962497340589e-11</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>1.372126494080564e-11</v>
+        <v>1.372919981074522e-11</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>1.356556914509325e-11</v>
+        <v>1.35789610169104e-11</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>1.332514153810408e-11</v>
+        <v>1.334413506911493e-11</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>1.300629847494322e-11</v>
+        <v>1.303087172033588e-11</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>1.261729119932345e-11</v>
+        <v>1.264724280205702e-11</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>1.216637095496006e-11</v>
+        <v>1.220132014576464e-11</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>1.166179220266844e-11</v>
+        <v>1.170117879570425e-11</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>1.11229674431215e-11</v>
+        <v>1.116603678018134e-11</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>1.060544877451849e-11</v>
+        <v>1.065120296104498e-11</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>1.017209185119827e-11</v>
+        <v>1.021927990142908e-11</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>9.885752327499204e-12</v>
+        <v>9.932870164467037e-12</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>9.80928537963873e-12</v>
+        <v>9.854575841376038e-12</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>9.97355061212729e-12</v>
+        <v>1.001541866572414e-11</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>1.029075621634572e-11</v>
+        <v>1.032930872523918e-11</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>1.064561247619171e-11</v>
+        <v>1.068301504697745e-11</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>1.092504427146427e-11</v>
+        <v>1.096543599892119e-11</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>1.107350149731557e-11</v>
+        <v>1.112078043228034e-11</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>1.109687694277678e-11</v>
+        <v>1.115233473402017e-11</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>1.100406263501028e-11</v>
+        <v>1.106626906800431e-11</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>1.080395060117847e-11</v>
+        <v>1.086875359809641e-11</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>1.050543406984895e-11</v>
+        <v>1.056595994335046e-11</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>1.012564190240502e-11</v>
+        <v>1.017403505261288e-11</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>9.709603193764355e-12</v>
+        <v>9.742919760035727e-12</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>9.308249542713842e-12</v>
+        <v>9.329704249919898e-12</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>8.971996425926968e-12</v>
+        <v>8.990893617394264e-12</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>8.716624968227986e-12</v>
+        <v>8.743730574285411e-12</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>8.502011090711032e-12</v>
+        <v>8.542082269712729e-12</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>8.282952253441798e-12</v>
+        <v>8.334058780038695e-12</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>8.015165652515403e-12</v>
+        <v>8.068918382988708e-12</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>7.67683144039293e-12</v>
+        <v>7.723962181935261e-12</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>7.26934496780087e-12</v>
+        <v>7.30547320706017e-12</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>6.795171890927452e-12</v>
+        <v>6.821070614712824e-12</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>6.259524079717163e-12</v>
+        <v>6.279972527159914e-12</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>5.677644631171758e-12</v>
+        <v>5.697237686371092e-12</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>5.067066411564355e-12</v>
+        <v>5.08925803826456e-12</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>4.445322287168078e-12</v>
+        <v>4.472425528758518e-12</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>3.829945124256051e-12</v>
+        <v>3.86313210377117e-12</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>3.238467789101393e-12</v>
+        <v>3.277769709220718e-12</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>2.688423147977229e-12</v>
+        <v>2.732730291025362e-12</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>2.197344067156679e-12</v>
+        <v>2.244405795103307e-12</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>1.782763412913225e-12</v>
+        <v>1.829188167373116e-12</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>1.461964710728357e-12</v>
+        <v>1.503248525928751e-12</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>1.234840687828523e-12</v>
+        <v>1.267355887535564e-12</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>1.072829416925584e-12</v>
+        <v>1.097078500961334e-12</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>9.449307737199842e-13</v>
+        <v>9.657931309927756e-13</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>8.326455996720165e-13</v>
+        <v>8.558739185707742e-13</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>7.373818820053888e-13</v>
+        <v>7.640228639424092e-13</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>6.618658789462868e-13</v>
+        <v>6.88304882458585e-13</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>6.054464181464067e-13</v>
+        <v>6.274096096791301e-13</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>5.659606947781754e-13</v>
+        <v>5.803062864251604e-13</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>5.412388194535951e-13</v>
+        <v>5.459654639423806e-13</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>5.291109027846677e-13</v>
+        <v>5.233576934764953e-13</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>5.274070553833956e-13</v>
+        <v>5.114535262732087e-13</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>5.339586858807818e-13</v>
+        <v>5.092237817545493e-13</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>5.470372313492234e-13</v>
+        <v>5.157301911163896e-13</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>5.659927826510856e-13</v>
+        <v>5.302573400798667e-13</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>5.903376830238796e-13</v>
+        <v>5.521233364066199e-13</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>6.195842757051168e-13</v>
+        <v>5.806462878582897e-13</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>6.532449039323079e-13</v>
+        <v>6.151443021965156e-13</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>6.908319109429648e-13</v>
+        <v>6.549354871829379e-13</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>7.318576399745981e-13</v>
+        <v>6.993379505791963e-13</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>7.758344342647194e-13</v>
+        <v>7.476698001469309e-13</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>8.222746370508399e-13</v>
+        <v>7.992491436477814e-13</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>8.706905915704702e-13</v>
+        <v>8.533940888433876e-13</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>9.205946410611223e-13</v>
+        <v>9.094227434953899e-13</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>9.714991287603069e-13</v>
+        <v>9.666532153654277e-13</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>1.022916397905536e-12</v>
+        <v>1.024403612215142e-12</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>1.074358791734319e-12</v>
+        <v>1.081992041806171e-12</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>1.125338653484169e-12</v>
+        <v>1.138736611900156e-12</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>1.175368326392597e-12</v>
+        <v>1.193955430258735e-12</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>1.223960153697113e-12</v>
+        <v>1.246966604643551e-12</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>1.270626478635229e-12</v>
+        <v>1.297088242816242e-12</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>1.314879644444456e-12</v>
+        <v>1.343638452538448e-12</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>1.356239783293587e-12</v>
+        <v>1.385953696660361e-12</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>1.394373033753067e-12</v>
+        <v>1.423714510965269e-12</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>1.429075205675228e-12</v>
+        <v>1.456907009469951e-12</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>1.460146616395777e-12</v>
+        <v>1.485527928348912e-12</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>1.487387583250403e-12</v>
+        <v>1.509574003776638e-12</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>1.510598423574888e-12</v>
+        <v>1.529041971927698e-12</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>1.529579454704852e-12</v>
+        <v>1.543928568976521e-12</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>1.544130993976081e-12</v>
+        <v>1.554230531097673e-12</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>1.554053358724227e-12</v>
+        <v>1.559944594465619e-12</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>1.559146866285036e-12</v>
+        <v>1.561067495254887e-12</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>1.559211833994206e-12</v>
+        <v>1.557595969639977e-12</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>1.554048579187449e-12</v>
+        <v>1.549526753795395e-12</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>1.543457419200474e-12</v>
+        <v>1.536856583895646e-12</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>1.527238671368991e-12</v>
+        <v>1.519582196115237e-12</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>1.505192653028712e-12</v>
+        <v>1.497700326628673e-12</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>1.477119681515345e-12</v>
+        <v>1.47120771161046e-12</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>1.442820074164601e-12</v>
+        <v>1.440101087235104e-12</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>1.40209414831219e-12</v>
+        <v>1.404377189677112e-12</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>1.354742221293823e-12</v>
+        <v>1.364032755110989e-12</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>1.30056461044521e-12</v>
+        <v>1.319064519711241e-12</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>1.24000359208011e-12</v>
+        <v>1.269789147613294e-12</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>1.181615044045013e-12</v>
+        <v>1.220566813648497e-12</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.139516011595808e-12</v>
+        <v>1.178529167166753e-12</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>1.127932068556634e-12</v>
+        <v>1.150861944032422e-12</v>
       </c>
     </row>
   </sheetData>
